--- a/param_files/policy_eval_params/hiv_transmission_df.xlsx
+++ b/param_files/policy_eval_params/hiv_transmission_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/epi_model_HIV_TB/param_files/policy_eval_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{68B39DDE-262D-8843-B519-0CC108AB7C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{45887A98-D931-4643-A959-C873C88E7AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="840" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="1180" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="warm_up" sheetId="1" r:id="rId1"/>
@@ -1246,8 +1246,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2453,7 +2453,7 @@
         <v>0.222566072</v>
       </c>
       <c r="I26">
-        <v>2.3945500000000001E-3</v>
+        <v>3.5714285999999998E-2</v>
       </c>
       <c r="J26">
         <v>0.21090940499999999</v>
@@ -2500,7 +2500,7 @@
         <v>0.219617015</v>
       </c>
       <c r="I27">
-        <v>1.1123401E-2</v>
+        <v>7.1428570999999996E-2</v>
       </c>
       <c r="J27">
         <v>0.213219193</v>
@@ -2547,7 +2547,7 @@
         <v>0.20971103599999999</v>
       </c>
       <c r="I28">
-        <v>2.8232719E-2</v>
+        <v>0.10714285699999999</v>
       </c>
       <c r="J28">
         <v>0.21533532799999999</v>
@@ -2594,7 +2594,7 @@
         <v>0.19418537</v>
       </c>
       <c r="I29">
-        <v>5.3736541999999998E-2</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="J29">
         <v>0.21734711400000001</v>
@@ -2641,7 +2641,7 @@
         <v>0.17781183</v>
       </c>
       <c r="I30">
-        <v>8.3421883000000002E-2</v>
+        <v>0.178571429</v>
       </c>
       <c r="J30">
         <v>0.21927205999999999</v>
@@ -2688,7 +2688,7 @@
         <v>0.165452191</v>
       </c>
       <c r="I31">
-        <v>0.11171012700000001</v>
+        <v>0.21428571399999999</v>
       </c>
       <c r="J31">
         <v>0.221012135</v>
@@ -2735,7 +2735,7 @@
         <v>0.153640621</v>
       </c>
       <c r="I32">
-        <v>0.141102278</v>
+        <v>0.25</v>
       </c>
       <c r="J32">
         <v>0.22247287700000001</v>
@@ -2782,7 +2782,7 @@
         <v>0.14512900400000001</v>
       </c>
       <c r="I33">
-        <v>0.17388677499999999</v>
+        <v>0.28571428599999998</v>
       </c>
       <c r="J33">
         <v>0.223674347</v>
@@ -2829,7 +2829,7 @@
         <v>0.15201272800000001</v>
       </c>
       <c r="I34">
-        <v>0.211418842</v>
+        <v>0.321428571</v>
       </c>
       <c r="J34">
         <v>0.22361335900000001</v>
@@ -2876,7 +2876,7 @@
         <v>0.15232551</v>
       </c>
       <c r="I35">
-        <v>0.24887543000000001</v>
+        <v>0.35714285699999998</v>
       </c>
       <c r="J35">
         <v>0.22198388299999999</v>
@@ -2923,7 +2923,7 @@
         <v>0.14920017299999999</v>
       </c>
       <c r="I36">
-        <v>0.28624191399999999</v>
+        <v>0.39285714300000002</v>
       </c>
       <c r="J36">
         <v>0.21910143700000001</v>
@@ -2970,7 +2970,7 @@
         <v>0.14514946500000001</v>
       </c>
       <c r="I37">
-        <v>0.32376062799999999</v>
+        <v>0.428571429</v>
       </c>
       <c r="J37">
         <v>0.21523922300000001</v>
@@ -3017,7 +3017,7 @@
         <v>0.145202528</v>
       </c>
       <c r="I38">
-        <v>0.36217503600000001</v>
+        <v>0.46428571400000002</v>
       </c>
       <c r="J38">
         <v>0.21028435100000001</v>
@@ -3064,7 +3064,7 @@
         <v>0.14814806999999999</v>
       </c>
       <c r="I39">
-        <v>0.38565875199999999</v>
+        <v>0.5</v>
       </c>
       <c r="J39">
         <v>0.20425892900000001</v>
@@ -3111,7 +3111,7 @@
         <v>0.15323519599999999</v>
       </c>
       <c r="I40">
-        <v>0.39492382700000001</v>
+        <v>0.5</v>
       </c>
       <c r="J40">
         <v>0.198233506</v>
@@ -3158,7 +3158,7 @@
         <v>0.158122296</v>
       </c>
       <c r="I41">
-        <v>0.39870140300000001</v>
+        <v>0.5</v>
       </c>
       <c r="J41">
         <v>0.19119835800000001</v>
@@ -3205,7 +3205,7 @@
         <v>0.16162885299999999</v>
       </c>
       <c r="I42">
-        <v>0.40030395499999999</v>
+        <v>0.5</v>
       </c>
       <c r="J42">
         <v>0.18456938000000001</v>
@@ -3252,7 +3252,7 @@
         <v>0.16371997899999999</v>
       </c>
       <c r="I43">
-        <v>0.40087097500000002</v>
+        <v>0.5</v>
       </c>
       <c r="J43">
         <v>0.179107189</v>
@@ -3299,7 +3299,7 @@
         <v>0.16535829499999999</v>
       </c>
       <c r="I44">
-        <v>0.40104972999999999</v>
+        <v>0.5</v>
       </c>
       <c r="J44">
         <v>0.172721549</v>
@@ -3346,7 +3346,7 @@
         <v>0.16615832699999999</v>
       </c>
       <c r="I45">
-        <v>0.40094275800000001</v>
+        <v>0.5</v>
       </c>
       <c r="J45">
         <v>0.16656110700000001</v>
@@ -3393,7 +3393,7 @@
         <v>0.16626443699999999</v>
       </c>
       <c r="I46">
-        <v>0.40067088299999998</v>
+        <v>0.5</v>
       </c>
       <c r="J46">
         <v>0.16066002300000001</v>
@@ -3440,7 +3440,7 @@
         <v>0.16583699700000001</v>
       </c>
       <c r="I47">
-        <v>0.40029328199999997</v>
+        <v>0.5</v>
       </c>
       <c r="J47">
         <v>0.155043285</v>
@@ -3487,7 +3487,7 @@
         <v>0.16499217199999999</v>
       </c>
       <c r="I48">
-        <v>0.39984133300000002</v>
+        <v>0.5</v>
       </c>
       <c r="J48">
         <v>0.14972881399999999</v>
@@ -3534,7 +3534,7 @@
         <v>0.16384643700000001</v>
       </c>
       <c r="I49">
-        <v>0.39933640999999998</v>
+        <v>0.5</v>
       </c>
       <c r="J49">
         <v>0.14472817199999999</v>
@@ -3581,7 +3581,7 @@
         <v>0.162497956</v>
       </c>
       <c r="I50">
-        <v>0.39879626400000001</v>
+        <v>0.5</v>
       </c>
       <c r="J50">
         <v>0.14004654499999999</v>
@@ -3627,6 +3627,9 @@
       <c r="H51" t="s">
         <v>17</v>
       </c>
+      <c r="I51">
+        <v>0.5</v>
+      </c>
       <c r="J51">
         <v>0.19120000000000001</v>
       </c>
@@ -3671,6 +3674,9 @@
       <c r="H52" t="s">
         <v>17</v>
       </c>
+      <c r="I52">
+        <v>0.5</v>
+      </c>
       <c r="J52">
         <v>0.18457000000000001</v>
       </c>
@@ -3715,6 +3721,9 @@
       <c r="H53" t="s">
         <v>17</v>
       </c>
+      <c r="I53">
+        <v>0.5</v>
+      </c>
       <c r="J53">
         <v>0.17910999999999999</v>
       </c>
@@ -3759,6 +3768,9 @@
       <c r="H54" t="s">
         <v>17</v>
       </c>
+      <c r="I54">
+        <v>0.5</v>
+      </c>
       <c r="J54">
         <v>0.17272000000000001</v>
       </c>
@@ -3803,6 +3815,9 @@
       <c r="H55" t="s">
         <v>17</v>
       </c>
+      <c r="I55">
+        <v>0.5</v>
+      </c>
       <c r="J55">
         <v>0.16656000000000001</v>
       </c>
@@ -3847,6 +3862,9 @@
       <c r="H56" t="s">
         <v>17</v>
       </c>
+      <c r="I56">
+        <v>0.5</v>
+      </c>
       <c r="J56">
         <v>0.16066</v>
       </c>
@@ -3891,6 +3909,9 @@
       <c r="H57" t="s">
         <v>17</v>
       </c>
+      <c r="I57">
+        <v>0.5</v>
+      </c>
       <c r="J57">
         <v>0.15504000000000001</v>
       </c>
@@ -3935,6 +3956,9 @@
       <c r="H58" t="s">
         <v>17</v>
       </c>
+      <c r="I58">
+        <v>0.5</v>
+      </c>
       <c r="J58">
         <v>0.14973</v>
       </c>
@@ -3979,6 +4003,9 @@
       <c r="H59" t="s">
         <v>17</v>
       </c>
+      <c r="I59">
+        <v>0.5</v>
+      </c>
       <c r="J59">
         <v>0.14473</v>
       </c>
@@ -4023,6 +4050,9 @@
       <c r="H60" t="s">
         <v>17</v>
       </c>
+      <c r="I60">
+        <v>0.5</v>
+      </c>
       <c r="J60">
         <v>0.14005000000000001</v>
       </c>
@@ -4726,7 +4756,7 @@
         <v>0.21205170500000001</v>
       </c>
       <c r="I75">
-        <v>3.2412859999999999E-3</v>
+        <v>4.3571429000000002E-2</v>
       </c>
       <c r="J75">
         <v>0.352615287</v>
@@ -4773,7 +4803,7 @@
         <v>0.207764851</v>
       </c>
       <c r="I76">
-        <v>1.5058375000000001E-2</v>
+        <v>8.7142857000000004E-2</v>
       </c>
       <c r="J76">
         <v>0.35668531999999997</v>
@@ -4820,7 +4850,7 @@
         <v>0.19406516400000001</v>
       </c>
       <c r="I77">
-        <v>3.8166703000000003E-2</v>
+        <v>0.13071428600000001</v>
       </c>
       <c r="J77">
         <v>0.36061631</v>
@@ -4867,7 +4897,7 @@
         <v>0.17278948899999999</v>
       </c>
       <c r="I78">
-        <v>7.2360108000000006E-2</v>
+        <v>0.17428571400000001</v>
       </c>
       <c r="J78">
         <v>0.36469700700000002</v>
@@ -4914,7 +4944,7 @@
         <v>0.150552662</v>
       </c>
       <c r="I79">
-        <v>0.111635096</v>
+        <v>0.217857143</v>
       </c>
       <c r="J79">
         <v>0.36901720100000002</v>
@@ -4961,7 +4991,7 @@
         <v>0.13393291900000001</v>
       </c>
       <c r="I80">
-        <v>0.14837555099999999</v>
+        <v>0.261428571</v>
       </c>
       <c r="J80">
         <v>0.37338805899999999</v>
@@ -5008,7 +5038,7 @@
         <v>0.119375362</v>
       </c>
       <c r="I81">
-        <v>0.18475185299999999</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="J81">
         <v>0.377576778</v>
@@ -5055,7 +5085,7 @@
         <v>0.107941486</v>
       </c>
       <c r="I82">
-        <v>0.229223287</v>
+        <v>0.34857142899999999</v>
       </c>
       <c r="J82">
         <v>0.38154158300000002</v>
@@ -5102,7 +5132,7 @@
         <v>0.109917482</v>
       </c>
       <c r="I83">
-        <v>0.2960139</v>
+        <v>0.39214285700000001</v>
       </c>
       <c r="J83">
         <v>0.384550171</v>
@@ -5149,7 +5179,7 @@
         <v>0.101271175</v>
       </c>
       <c r="I84">
-        <v>0.35968761199999999</v>
+        <v>0.43571428600000001</v>
       </c>
       <c r="J84">
         <v>0.38660488799999998</v>
@@ -5196,7 +5226,7 @@
         <v>8.7937847E-2</v>
       </c>
       <c r="I85">
-        <v>0.42117983199999998</v>
+        <v>0.47928571399999997</v>
       </c>
       <c r="J85">
         <v>0.38807335599999998</v>
@@ -5243,7 +5273,7 @@
         <v>7.4807135999999996E-2</v>
       </c>
       <c r="I86">
-        <v>0.48216554499999997</v>
+        <v>0.52285714299999997</v>
       </c>
       <c r="J86">
         <v>0.38910188000000001</v>
@@ -5290,7 +5320,7 @@
         <v>7.0301565999999996E-2</v>
       </c>
       <c r="I87">
-        <v>0.54850183399999997</v>
+        <v>0.56642857099999999</v>
       </c>
       <c r="J87">
         <v>0.38930014800000001</v>
@@ -5337,7 +5367,7 @@
         <v>6.9515382000000001E-2</v>
       </c>
       <c r="I88">
-        <v>0.58639931999999995</v>
+        <v>0.61</v>
       </c>
       <c r="J88">
         <v>0.388336289</v>
@@ -5384,7 +5414,7 @@
         <v>7.1701538999999995E-2</v>
       </c>
       <c r="I89">
-        <v>0.60089356299999996</v>
+        <v>0.61</v>
       </c>
       <c r="J89">
         <v>0.38737243100000002</v>
@@ -5431,7 +5461,7 @@
         <v>7.4987235999999999E-2</v>
       </c>
       <c r="I90">
-        <v>0.60686949599999995</v>
+        <v>0.61</v>
       </c>
       <c r="J90">
         <v>0.383720067</v>
@@ -5478,7 +5508,7 @@
         <v>7.7656173999999994E-2</v>
       </c>
       <c r="I91">
-        <v>0.60961849099999998</v>
+        <v>0.61</v>
       </c>
       <c r="J91">
         <v>0.380362319</v>
@@ -5525,7 +5555,7 @@
         <v>7.9444208000000002E-2</v>
       </c>
       <c r="I92">
-        <v>0.61088634600000002</v>
+        <v>0.61</v>
       </c>
       <c r="J92">
         <v>0.37713659300000002</v>
@@ -5572,7 +5602,7 @@
         <v>8.1176399999999996E-2</v>
       </c>
       <c r="I93">
-        <v>0.61183717199999998</v>
+        <v>0.61</v>
       </c>
       <c r="J93">
         <v>0.37284682899999999</v>
@@ -5619,7 +5649,7 @@
         <v>8.2528449000000004E-2</v>
       </c>
       <c r="I94">
-        <v>0.61245915100000003</v>
+        <v>0.61</v>
       </c>
       <c r="J94">
         <v>0.368192784</v>
@@ -5666,7 +5696,7 @@
         <v>8.3558718000000004E-2</v>
       </c>
       <c r="I95">
-        <v>0.61288122</v>
+        <v>0.61</v>
       </c>
       <c r="J95">
         <v>0.36326453199999997</v>
@@ -5713,7 +5743,7 @@
         <v>8.4322311999999996E-2</v>
       </c>
       <c r="I96">
-        <v>0.61316120399999996</v>
+        <v>0.61</v>
       </c>
       <c r="J96">
         <v>0.35814538499999998</v>
@@ -5760,7 +5790,7 @@
         <v>8.4855448999999999E-2</v>
       </c>
       <c r="I97">
-        <v>0.61333385500000004</v>
+        <v>0.61</v>
       </c>
       <c r="J97">
         <v>0.35291125200000001</v>
@@ -5807,7 +5837,7 @@
         <v>8.5199269999999994E-2</v>
       </c>
       <c r="I98">
-        <v>0.61341954600000004</v>
+        <v>0.61</v>
       </c>
       <c r="J98">
         <v>0.34762979100000002</v>
@@ -5854,7 +5884,7 @@
         <v>8.5387055000000003E-2</v>
       </c>
       <c r="I99">
-        <v>0.613435332</v>
+        <v>0.61</v>
       </c>
       <c r="J99">
         <v>0.34235990500000002</v>
@@ -5886,7 +5916,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
